--- a/data/trans_dic/iP18_E_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP18_E_R-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>95,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>94,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>95,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>95,21%</t>
+          <t>91,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>93,38%</t>
+          <t>95,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>95,32%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>94,41%</t>
+          <t>93,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>84,18%</t>
+          <t>89,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>93,37%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>94,74%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>94,54%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>90,67%</t>
+          <t>90,28%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,32; 95,74</t>
+          <t>92,3; 97,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>91,74; 96,45</t>
+          <t>91,53; 96,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>90,94; 95,97</t>
+          <t>92,54; 97,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>88,09; 98,64</t>
+          <t>80,92; 96,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>90,35; 95,86</t>
+          <t>92,59; 97,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>92,05; 97,08</t>
+          <t>92,43; 97,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,93; 96,52</t>
+          <t>91,1; 96,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>68,08; 92,67</t>
+          <t>77,95; 95,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>91,44; 95,2</t>
+          <t>93,26; 96,86</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>93,0; 96,17</t>
+          <t>92,84; 96,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>92,2; 95,8</t>
+          <t>92,44; 95,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>82,72; 95,13</t>
+          <t>84,32; 95,26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>95,29%</t>
+          <t>93,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>94,36%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>93,95%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>91,34%</t>
+          <t>95,21%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,42%</t>
+          <t>93,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,32%</t>
+          <t>94,99%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,91%</t>
+          <t>94,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>89,11%</t>
+          <t>84,18%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>95,35%</t>
+          <t>93,37%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>94,74%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>90,28%</t>
+          <t>90,67%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>92,3; 97,21</t>
+          <t>90,32; 95,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,53; 96,55</t>
+          <t>91,74; 96,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,54; 97,15</t>
+          <t>90,94; 95,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,92; 96,59</t>
+          <t>88,09; 98,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>92,59; 97,36</t>
+          <t>90,35; 95,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,43; 97,41</t>
+          <t>92,05; 97,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>91,1; 96,09</t>
+          <t>91,93; 96,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>77,95; 95,34</t>
+          <t>68,08; 92,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>93,26; 96,86</t>
+          <t>91,44; 95,2</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>92,84; 96,42</t>
+          <t>93,0; 96,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>92,44; 95,96</t>
+          <t>92,2; 95,8</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>84,32; 95,26</t>
+          <t>82,72; 95,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP18_E_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP18_E_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>90,51%</t>
+          <t>89,31%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>95,47%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>93,15%</t>
+          <t>92,18%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>94,26%</t>
+          <t>97,77%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>92,09%</t>
+          <t>95,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>93,81%</t>
+          <t>92,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>93,76%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>78,78%</t>
+          <t>81,89%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>91,29%</t>
+          <t>92,14%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>94,49%</t>
+          <t>94,23%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>93,45%</t>
+          <t>92,76%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>87,27%</t>
+          <t>90,14%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>86,67; 93,48</t>
+          <t>83,88; 93,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>92,43; 97,13</t>
+          <t>91,7; 97,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>89,8; 95,79</t>
+          <t>87,73; 95,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85,08; 98,61</t>
+          <t>87,79; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,97; 95,05</t>
+          <t>90,66; 97,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,69; 96,15</t>
+          <t>88,46; 95,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>90,86; 96,16</t>
+          <t>88,89; 96,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>64,58; 90,51</t>
+          <t>65,53; 93,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>88,57; 93,07</t>
+          <t>88,75; 94,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>92,35; 95,97</t>
+          <t>91,79; 96,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>91,29; 95,08</t>
+          <t>89,96; 94,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>78,95; 92,99</t>
+          <t>79,8; 95,92</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>95,29%</t>
+          <t>93,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>94,36%</t>
+          <t>95,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>91,34%</t>
+          <t>87,88%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>95,42%</t>
+          <t>92,92%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>95,32%</t>
+          <t>96,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>93,91%</t>
+          <t>94,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>89,11%</t>
+          <t>87,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>95,35%</t>
+          <t>93,3%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>95,59%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>90,28%</t>
+          <t>87,7%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>92,3; 97,21</t>
+          <t>90,69; 95,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>91,53; 96,55</t>
+          <t>92,41; 97,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>92,54; 97,15</t>
+          <t>92,01; 96,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,92; 96,59</t>
+          <t>76,28; 95,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>92,59; 97,36</t>
+          <t>89,93; 95,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>92,43; 97,41</t>
+          <t>93,42; 97,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,1; 96,09</t>
+          <t>91,22; 96,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>77,95; 95,34</t>
+          <t>74,25; 94,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>93,26; 96,86</t>
+          <t>91,0; 95,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>92,84; 96,42</t>
+          <t>93,92; 96,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>92,44; 95,96</t>
+          <t>92,73; 96,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>84,32; 95,26</t>
+          <t>79,85; 93,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,22 +936,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>94,51%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>95,21%</t>
+          <t>98,46%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -961,37 +961,37 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,99%</t>
+          <t>94,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,41%</t>
+          <t>93,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>84,18%</t>
+          <t>79,14%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>93,37%</t>
+          <t>93,87%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>94,74%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>94,18%</t>
+          <t>93,98%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>90,67%</t>
+          <t>89,48%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>90,32; 95,74</t>
+          <t>90,15; 97,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,74; 96,45</t>
+          <t>89,24; 96,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90,94; 95,97</t>
+          <t>91,38; 97,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>88,09; 98,64</t>
+          <t>91,16; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>90,35; 95,86</t>
+          <t>88,58; 96,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,05; 97,08</t>
+          <t>91,2; 97,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>91,93; 96,52</t>
+          <t>90,04; 95,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>68,08; 92,67</t>
+          <t>56,38; 90,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>91,44; 95,2</t>
+          <t>90,61; 96,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>93,0; 96,17</t>
+          <t>91,14; 95,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>92,2; 95,8</t>
+          <t>91,65; 95,63</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>82,72; 95,13</t>
+          <t>78,1; 95,27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>93,04%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>94,66%</t>
+          <t>94,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>93,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>93,84%</t>
+          <t>92,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>93,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>94,72%</t>
+          <t>94,39%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>94,05%</t>
+          <t>94,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>84,67%</t>
+          <t>90,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>93,66%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>94,47%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>94,08%</t>
+          <t>94,26%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>89,79%</t>
+          <t>91,82%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>91,34; 94,55</t>
+          <t>89,95; 96,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>93,2; 95,91</t>
+          <t>91,3; 96,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92,44; 95,29</t>
+          <t>89,38; 96,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>89,48; 96,63</t>
+          <t>83,49; 98,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>91,8; 95,06</t>
+          <t>89,58; 96,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,22; 96,04</t>
+          <t>90,78; 96,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,45; 95,38</t>
+          <t>91,19; 97,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>76,69; 90,2</t>
+          <t>76,34; 97,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>92,03; 94,36</t>
+          <t>91,18; 95,65</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>93,56; 95,72</t>
+          <t>92,12; 96,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>92,95; 95,14</t>
+          <t>91,73; 96,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>85,48; 92,87</t>
+          <t>84,96; 96,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>93,04%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>94,66%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>94,11%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>93,84%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>93,57%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>94,72%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>94,05%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>84,67%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>93,3%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>94,69%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>94,08%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>89,79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>91,3; 94,68</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>93,12; 95,83</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>92,42; 95,45</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>89,71; 96,79</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>91,7; 95,01</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>93,16; 95,98</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>92,32; 95,37</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>76,35; 89,92</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>92,01; 94,31</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>93,58; 95,62</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>93,08; 95,1</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>85,42; 92,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/iP18_E_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP18_E_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>83,88; 93,73</t>
+          <t>82,87; 93,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>91,7; 97,74</t>
+          <t>91,48; 97,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,73; 95,55</t>
+          <t>87,55; 95,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>87,79; 100,0</t>
+          <t>88,48; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,66; 97,63</t>
+          <t>90,87; 97,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,46; 95,97</t>
+          <t>88,55; 95,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>88,89; 96,44</t>
+          <t>89,19; 96,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>65,53; 93,34</t>
+          <t>63,0; 93,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>88,75; 94,84</t>
+          <t>89,0; 94,88</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>91,79; 96,38</t>
+          <t>91,31; 96,2</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>89,96; 94,95</t>
+          <t>89,88; 95,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>79,8; 95,92</t>
+          <t>80,12; 95,96</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,69; 95,8</t>
+          <t>90,86; 96,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>92,41; 97,0</t>
+          <t>92,45; 96,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>92,01; 96,81</t>
+          <t>91,91; 96,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>76,28; 95,54</t>
+          <t>75,94; 95,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,93; 95,37</t>
+          <t>89,65; 95,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>93,42; 97,83</t>
+          <t>93,5; 97,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,22; 96,87</t>
+          <t>91,74; 97,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>74,25; 94,97</t>
+          <t>74,44; 94,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>91,0; 95,02</t>
+          <t>91,25; 95,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>93,92; 96,95</t>
+          <t>93,94; 97,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>92,73; 96,29</t>
+          <t>92,86; 96,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>79,85; 93,33</t>
+          <t>79,39; 93,51</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>90,15; 97,57</t>
+          <t>89,49; 97,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>89,24; 96,12</t>
+          <t>89,28; 96,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>91,38; 97,05</t>
+          <t>91,4; 97,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>91,16; 100,0</t>
+          <t>91,61; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,58; 96,55</t>
+          <t>88,96; 96,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>91,2; 97,15</t>
+          <t>90,55; 97,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>90,04; 95,88</t>
+          <t>89,24; 95,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>56,38; 90,99</t>
+          <t>56,73; 90,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>90,61; 96,07</t>
+          <t>90,79; 96,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>91,14; 95,99</t>
+          <t>91,5; 96,15</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>91,65; 95,63</t>
+          <t>91,83; 95,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>78,1; 95,27</t>
+          <t>77,56; 95,24</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,95; 96,22</t>
+          <t>90,39; 96,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,3; 96,88</t>
+          <t>91,34; 96,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,38; 96,48</t>
+          <t>89,53; 96,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,49; 98,0</t>
+          <t>82,29; 97,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,58; 96,48</t>
+          <t>89,98; 96,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,78; 96,87</t>
+          <t>90,28; 96,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,19; 97,44</t>
+          <t>91,35; 97,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>76,34; 97,15</t>
+          <t>77,73; 97,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,18; 95,65</t>
+          <t>91,05; 95,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>92,12; 96,36</t>
+          <t>92,03; 96,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91,73; 96,15</t>
+          <t>91,64; 96,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>84,96; 96,15</t>
+          <t>84,67; 96,13</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>91,3; 94,68</t>
+          <t>91,23; 94,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>93,12; 95,83</t>
+          <t>93,16; 96,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92,42; 95,45</t>
+          <t>92,39; 95,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>89,71; 96,79</t>
+          <t>89,74; 96,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>91,7; 95,01</t>
+          <t>91,83; 94,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>93,16; 95,98</t>
+          <t>93,17; 96,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>92,32; 95,37</t>
+          <t>92,18; 95,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>76,35; 89,92</t>
+          <t>74,9; 90,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>92,01; 94,31</t>
+          <t>92,12; 94,37</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>93,58; 95,62</t>
+          <t>93,66; 95,61</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>93,08; 95,1</t>
+          <t>92,88; 95,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>85,42; 92,64</t>
+          <t>85,02; 92,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP18_E_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP18_E_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>95,15%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>92,97%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>93,29%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>81,73%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>89,31%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>95,47%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>92,18%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>97,77%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>95,15%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>92,97%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>93,29%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>81,89%</t>
+          <t>97,71%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>90,14%</t>
+          <t>90,21%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,87; 93,57</t>
+          <t>90,76; 97,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>91,48; 97,83</t>
+          <t>88,49; 95,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,55; 95,68</t>
+          <t>88,8; 96,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>88,48; 100,0</t>
+          <t>64,87; 93,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,87; 97,65</t>
+          <t>83,96; 93,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>88,55; 95,92</t>
+          <t>91,6; 97,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>89,19; 96,37</t>
+          <t>87,63; 95,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>63,0; 93,01</t>
+          <t>88,44; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>89,0; 94,88</t>
+          <t>88,82; 94,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>91,31; 96,2</t>
+          <t>91,52; 96,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>89,88; 95,17</t>
+          <t>90,08; 95,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>80,12; 95,96</t>
+          <t>80,99; 96,01</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>92,92%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>96,13%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>94,73%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>87,62%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>93,67%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>95,12%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>94,83%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>87,88%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>92,92%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>96,13%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>94,73%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>87,5%</t>
+          <t>87,45%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>87,7%</t>
+          <t>87,53%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,86; 96,01</t>
+          <t>90,16; 95,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>92,45; 96,95</t>
+          <t>93,54; 98,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91,91; 96,71</t>
+          <t>91,73; 96,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,94; 95,34</t>
+          <t>76,02; 94,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,65; 95,16</t>
+          <t>90,68; 95,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>93,5; 97,83</t>
+          <t>92,04; 96,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>91,74; 97,06</t>
+          <t>92,31; 96,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>74,44; 94,55</t>
+          <t>75,36; 95,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>91,25; 95,14</t>
+          <t>91,16; 95,07</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>93,94; 97,02</t>
+          <t>93,91; 97,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>92,86; 96,32</t>
+          <t>92,89; 96,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>79,39; 93,51</t>
+          <t>79,81; 93,69</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>93,38%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>94,59%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>93,12%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>76,93%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>94,31%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>93,23%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>94,85%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>98,46%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>93,38%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>94,59%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>93,12%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>79,14%</t>
+          <t>98,55%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>89,48%</t>
+          <t>88,62%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>89,49; 97,09</t>
+          <t>88,62; 96,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>89,28; 96,27</t>
+          <t>90,75; 97,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>91,4; 97,2</t>
+          <t>89,76; 95,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>91,61; 100,0</t>
+          <t>50,58; 90,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>88,96; 96,54</t>
+          <t>89,63; 97,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>90,55; 97,11</t>
+          <t>88,58; 96,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>89,24; 95,65</t>
+          <t>91,41; 97,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>56,73; 90,87</t>
+          <t>92,24; 100,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>90,79; 96,18</t>
+          <t>90,49; 96,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>91,5; 96,15</t>
+          <t>91,4; 95,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>91,83; 95,78</t>
+          <t>91,74; 95,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>77,56; 95,24</t>
+          <t>75,09; 95,15</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>93,6%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>94,39%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>94,86%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>89,91%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>93,71%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>94,55%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>93,64%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>92,93%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>93,6%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>94,39%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>94,86%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>90,02%</t>
+          <t>93,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>91,82%</t>
+          <t>91,93%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,39; 96,45</t>
+          <t>89,84; 96,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,34; 96,95</t>
+          <t>90,65; 96,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,53; 96,51</t>
+          <t>91,28; 97,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>82,29; 97,88</t>
+          <t>77,3; 97,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,98; 96,46</t>
+          <t>90,0; 96,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,28; 96,89</t>
+          <t>91,14; 96,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,35; 97,34</t>
+          <t>89,79; 96,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>77,73; 97,56</t>
+          <t>83,38; 97,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,05; 95,71</t>
+          <t>91,32; 95,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>92,03; 96,13</t>
+          <t>92,22; 96,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91,64; 96,35</t>
+          <t>91,68; 96,38</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>84,67; 96,13</t>
+          <t>85,46; 96,41</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>93,57%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>94,72%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>94,05%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>83,89%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>93,04%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>94,66%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>94,11%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>93,84%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>93,57%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>94,72%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>94,05%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>84,67%</t>
+          <t>93,82%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>89,79%</t>
+          <t>89,53%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>91,23; 94,55</t>
+          <t>91,8; 95,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>93,16; 96,02</t>
+          <t>93,22; 96,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92,39; 95,41</t>
+          <t>92,45; 95,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>89,74; 96,79</t>
+          <t>73,69; 89,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>91,83; 94,98</t>
+          <t>91,34; 94,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>93,17; 96,06</t>
+          <t>93,2; 95,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>92,18; 95,33</t>
+          <t>92,44; 95,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>74,9; 90,14</t>
+          <t>89,42; 96,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>92,12; 94,37</t>
+          <t>92,03; 94,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>93,66; 95,61</t>
+          <t>93,56; 95,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>92,88; 95,0</t>
+          <t>92,95; 95,14</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>85,02; 92,7</t>
+          <t>84,66; 92,79</t>
         </is>
       </c>
     </row>
